--- a/data/trans_dic/P41_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P41_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene contrato temporal en la actualidad</t>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 27,1</t>
+          <t>6,46; 11,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,0; 33,12</t>
+          <t>8,49; 17,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 27,72</t>
+          <t>7,22; 13,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 33,51</t>
+          <t>8,28; 16,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,94; 38,56</t>
+          <t>5,32; 19,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,0; 34,08</t>
+          <t>12,22; 18,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 32,11</t>
+          <t>5,7; 9,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 33,46</t>
+          <t>7,64; 12,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,69</t>
+          <t>7,33; 11,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,48; 38,43</t>
+          <t>9,29; 13,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,23; 28,71</t>
+          <t>8,63; 13,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,04; 30,63</t>
+          <t>5,39; 9,53</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>21,45; 29,25</t>
+          <t>9,71; 13,73</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,05; 30,95</t>
+          <t>6,51; 10,35</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>29,07; 36,63</t>
+          <t>7,7; 10,8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 13,37</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,92; 12,85</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 13,7</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 13,89</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 15,55</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 9,73</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,72; 43,24</t>
+          <t>12,64; 19,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,54; 48,05</t>
+          <t>13,94; 23,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,78; 48,26</t>
+          <t>16,15; 24,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,03; 49,73</t>
+          <t>17,14; 26,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,28; 47,63</t>
+          <t>6,59; 16,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,52; 46,06</t>
+          <t>12,09; 22,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,63; 49,49</t>
+          <t>7,01; 15,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 41,2</t>
+          <t>8,89; 14,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,5; 43,18</t>
+          <t>9,84; 15,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,86; 61,88</t>
+          <t>9,13; 14,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 42,57</t>
+          <t>10,86; 16,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,14; 45,98</t>
+          <t>9,1; 15,01</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,67; 42,93</t>
+          <t>15,45; 25,63</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>34,62; 45,07</t>
+          <t>6,65; 14,73</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>36,83; 51,18</t>
+          <t>11,36; 15,81</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 18,69</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 18,35</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 20,0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 14,07</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>14,72; 21,81</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 13,63</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44,86%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>36,23%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>32,57%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>35,06%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 46,5</t>
+          <t>4,26; 16,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 49,37</t>
+          <t>5,23; 16,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,59; 47,64</t>
+          <t>7,44; 17,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,38; 44,04</t>
+          <t>6,84; 16,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,58; 13,31</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>29,9; 58,22</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 51,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,1; 52,75</t>
+          <t>7,7; 17,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,22; 55,48</t>
+          <t>4,62; 14,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>5,54; 14,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 17,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 16,81</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>25,95; 47,82</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>21,84; 44,47</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>25,77; 44,58</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>27,03; 45,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 15,28</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 13,3</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 14,35</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 15,29</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 13,07</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,0; 33,46</t>
+          <t>9,62; 13,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,63; 37,18</t>
+          <t>11,66; 17,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 35,22</t>
+          <t>11,89; 16,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 37,76</t>
+          <t>12,84; 18,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,09; 38,16</t>
+          <t>6,57; 15,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 38,5</t>
+          <t>13,02; 18,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,9; 36,34</t>
+          <t>6,53; 10,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,41; 34,97</t>
+          <t>9,15; 12,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,34; 35,91</t>
+          <t>8,77; 12,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,16; 42,2</t>
+          <t>9,69; 12,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,98; 33,71</t>
+          <t>10,38; 13,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,58; 35,52</t>
+          <t>7,83; 11,13</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>28,13; 34,02</t>
+          <t>11,57; 15,71</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 35,87</t>
+          <t>7,41; 10,44</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>31,93; 38,68</t>
+          <t>9,84; 12,34</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 13,9</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 14,02</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12,03; 15,14</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 12,64</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 16,24</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 9,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene contrato temporal en la actualidad (tasa de respuesta: 99,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>143069</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>191799</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>159655</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>183897</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>151458</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34741</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16910</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>172634</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>165830</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>204507</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>192171</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>131908</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>27308</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19476</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>315703</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>357630</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>364163</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>376068</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>283366</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>62049</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>36386</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105978; 190486</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>139505; 286935</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>118601; 227644</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>135993; 271285</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>86530; 315441</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27839; 42519</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12860; 22014</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>136687; 216482</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>131879; 210270</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167979; 251272</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>155002; 237633</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96661; 170825</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22670; 32063</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15021; 23873</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>264130; 370126</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>296520; 460472</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>307863; 443350</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>317922; 471198</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>208119; 474779</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>54295; 71707</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>30918; 44392</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>217471</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>247834</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>272358</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>289327</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>136624</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11752</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7569</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>158135</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>172823</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>155117</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>182968</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>157859</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12715</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6875</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>375606</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>420657</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>427475</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>472295</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>294483</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>24467</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>14444</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>175223; 271987</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>191051; 319386</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>221126; 330976</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>235336; 364903</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>89233; 226595</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8550; 15656</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4977; 10864</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>125332; 197715</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>136519; 216482</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>123861; 194010</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>148406; 226200</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>123855; 204277</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>9890; 16404</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4368; 9672</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>317610; 442129</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>358686; 515337</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>364369; 500166</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>400509; 548085</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>230868; 382025</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>19841; 29393</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>10626; 18625</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>38083</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40847</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49345</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46224</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26518</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49884</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33800</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37005</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49706</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43599</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>87967</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>74646</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>86350</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>95930</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>70117</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18005; 69505</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22123; 68627</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31453; 75989</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28908; 71115</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10701; 55189</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31707; 73586</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18721; 57332</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22084; 58915</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28927; 71650</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25292; 67551</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>59923; 127504</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>46851; 110175</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>61360; 117947</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>67851; 125952</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>45978; 106754</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>398623</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>480480</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>481358</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>519448</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>314600</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46492</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24479</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>380653</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>372452</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>396629</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>424846</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>333366</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>40024</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26351</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>779276</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>852932</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>877988</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>944293</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>647965</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>86516</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>50830</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>331874; 468706</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>400791; 600714</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>408427; 563091</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>441512; 630053</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>222866; 509454</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38859; 54376</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19387; 30721</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>330292; 443414</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>315019; 439051</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>345323; 461609</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>370052; 484661</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>278565; 395956</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>34414; 46735</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21948; 30942</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>695012; 871092</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>742762; 977146</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>781962; 980969</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>842259; 1060664</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>542155; 878550</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>78022; 96797</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>43829; 59065</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
